--- a/medicine/Pharmacie/Tirzépatide/Tirzépatide.xlsx
+++ b/medicine/Pharmacie/Tirzépatide/Tirzépatide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tirz%C3%A9patide</t>
+          <t>Tirzépatide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tirzépatide est une molécule identifiée pour son potentiel dans le traitement du diabète de type 2.
 Il a la propriété d'être activateur du récepteur du GLP1 (comme les incrétines), de même que du récepteur du peptide insulinotrope dépendant du glucose (GIP). Il s’administre par voie sous-cutanée de manière hebdomadaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tirz%C3%A9patide</t>
+          <t>Tirzépatide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet de réduire le taux d'hémoglobine glyquée de 2 points sans hypoglycémie[1]. Il s'avère être plus efficace que le sémaglutide[2], l'insuline degludec[3] ou l'insuline glargine[4]. En association avec cette dernière, elle permet un meilleur équilibre du diabète[5].
-Il ne semble pas y avoir plus d'accidents cardiaques[4]. Une baisse de poids est constatée[4].
-Chez le patient obèse et non diabétique, il permet d'obtenir une réduction du poids[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet de réduire le taux d'hémoglobine glyquée de 2 points sans hypoglycémie. Il s'avère être plus efficace que le sémaglutide, l'insuline degludec ou l'insuline glargine. En association avec cette dernière, elle permet un meilleur équilibre du diabète.
+Il ne semble pas y avoir plus d'accidents cardiaques. Une baisse de poids est constatée.
+Chez le patient obèse et non diabétique, il permet d'obtenir une réduction du poids.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tirz%C3%A9patide</t>
+          <t>Tirzépatide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont le plus souvent d'ordre digestif mais conduisent rarement à la nécessité d'arrêter le traitement[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont le plus souvent d'ordre digestif mais conduisent rarement à la nécessité d'arrêter le traitement.
 </t>
         </is>
       </c>
